--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="5310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="5310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>C:\Users\Admin\Desktop\HCVIP - 3\ChromeProfile\ChromeProfile\ChromeProfile - 1</t>
   </si>
@@ -120,288 +120,174 @@
     <t>15/12/1985</t>
   </si>
   <si>
-    <t>binhtran@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Minh Châu</t>
   </si>
   <si>
-    <t>leminhchau@gmail.com</t>
-  </si>
-  <si>
     <t>Phạm Thị Dung</t>
   </si>
   <si>
     <t>25/02/1998</t>
   </si>
   <si>
-    <t>dungpham@gmail.com</t>
-  </si>
-  <si>
     <t>Hoàng Đức Duy</t>
   </si>
   <si>
-    <t>duyhoang@gmail.com</t>
-  </si>
-  <si>
     <t>Mai Thị Hà</t>
   </si>
   <si>
-    <t>hamaithi@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Quốc Hải</t>
   </si>
   <si>
     <t>18/09/1989</t>
   </si>
   <si>
-    <t>haitran@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hoa</t>
   </si>
   <si>
-    <t>hoanguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Vũ Đức Hùng</t>
   </si>
   <si>
     <t>30/03/1992</t>
   </si>
   <si>
-    <t>hunghung@gmail.com</t>
-  </si>
-  <si>
     <t>Đỗ Thị Huệ</t>
   </si>
   <si>
     <t>22/10/1984</t>
   </si>
   <si>
-    <t>huedo@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Khánh</t>
   </si>
   <si>
-    <t>khanhnguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Phan Thị Lan</t>
   </si>
   <si>
     <t>14/07/1986</t>
   </si>
   <si>
-    <t>lanphan@gmail.com</t>
-  </si>
-  <si>
     <t>Bùi Văn Long</t>
   </si>
   <si>
     <t>28/08/1991</t>
   </si>
   <si>
-    <t>longbui@gmail.com</t>
-  </si>
-  <si>
     <t>Đặng Thị Mai</t>
   </si>
   <si>
     <t>19/04/1983</t>
   </si>
   <si>
-    <t>maidang@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Thị Ngọc</t>
   </si>
   <si>
-    <t>ngocle@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Văn Phong</t>
   </si>
   <si>
     <t>16/12/1988</t>
   </si>
   <si>
-    <t>phongtran@gmail.com</t>
-  </si>
-  <si>
     <t>Đỗ Thị Quỳnh</t>
   </si>
   <si>
-    <t>quynhdo@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Minh Sơn</t>
   </si>
   <si>
     <t>24/06/1981</t>
   </si>
   <si>
-    <t>sonle@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Thu</t>
   </si>
   <si>
-    <t>thunguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Vũ Văn Tâm</t>
   </si>
   <si>
-    <t>tamvu@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Uyên</t>
   </si>
   <si>
-    <t>uyennguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Hoàng Văn Việt</t>
   </si>
   <si>
     <t>29/07/1980</t>
   </si>
   <si>
-    <t>viethoang@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Thị Xuân</t>
   </si>
   <si>
     <t>17/10/1993</t>
   </si>
   <si>
-    <t>xuantran@gmail.com</t>
-  </si>
-  <si>
     <t>Phạm Văn Yên</t>
   </si>
   <si>
     <t>23/09/1998</t>
   </si>
   <si>
-    <t>yenpham@gmail.com</t>
-  </si>
-  <si>
     <t>Bùi Thị Thanh</t>
   </si>
   <si>
-    <t>thanhbui@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Văn Trung</t>
   </si>
   <si>
     <t>13/01/1995</t>
   </si>
   <si>
-    <t>trungle@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Diệu</t>
   </si>
   <si>
-    <t>dieunguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Văn Dũng</t>
   </si>
   <si>
     <t>21/03/1996</t>
   </si>
   <si>
-    <t>dungtran@gmail.com</t>
-  </si>
-  <si>
     <t>Phan Thị Thảo</t>
   </si>
   <si>
     <t>27/06/1984</t>
   </si>
   <si>
-    <t>thao.phan@gmail.com</t>
-  </si>
-  <si>
     <t>Đinh Văn Hòa</t>
   </si>
   <si>
-    <t>hoa.dinh@gmail.com</t>
-  </si>
-  <si>
     <t>Vũ Thị Linh</t>
   </si>
   <si>
-    <t>linhvuthi@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Hải Nam</t>
   </si>
   <si>
     <t>15/08/1997</t>
   </si>
   <si>
-    <t>namnguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Trương Thị Thúy</t>
   </si>
   <si>
     <t>20/11/1983</t>
   </si>
   <si>
-    <t>thuytruong@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Văn Tùng</t>
   </si>
   <si>
-    <t>tungle@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hương</t>
   </si>
   <si>
     <t>18/09/1991</t>
   </si>
   <si>
-    <t>huongnguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Phạm Văn Phúc</t>
   </si>
   <si>
-    <t>phucpham@gmail.com</t>
-  </si>
-  <si>
     <t>Ngô Thị Ngân</t>
   </si>
   <si>
-    <t>nganngo@gmail.com</t>
-  </si>
-  <si>
     <t>Vũ Đức Thịnh</t>
   </si>
   <si>
     <t>25/10/1985</t>
   </si>
   <si>
-    <t>thinhvu@gmail.com</t>
-  </si>
-  <si>
     <t>Hoàng Thị Ngọc</t>
   </si>
   <si>
-    <t>ngoc.hoang@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Văn Bình</t>
   </si>
   <si>
@@ -414,58 +300,37 @@
     <t>29/01/1992</t>
   </si>
   <si>
-    <t>hangdo@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Văn Hải</t>
   </si>
   <si>
     <t>19/04/1981</t>
   </si>
   <si>
-    <t>haile@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Trang</t>
   </si>
   <si>
-    <t>trangnguyen@gmail.com</t>
-  </si>
-  <si>
     <t>Phan Văn Thắng</t>
   </si>
   <si>
     <t>16/12/1989</t>
   </si>
   <si>
-    <t>thangphan@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Thị Mai</t>
   </si>
   <si>
     <t>20/05/1994</t>
   </si>
   <si>
-    <t>maile@gmail.com</t>
-  </si>
-  <si>
     <t>Vũ Văn Hùng</t>
   </si>
   <si>
     <t>Đặng Thị Lan</t>
   </si>
   <si>
-    <t>lan.dang@gmail.com</t>
-  </si>
-  <si>
     <t>Trương Văn Sơn</t>
   </si>
   <si>
     <t>25/02/1988</t>
-  </si>
-  <si>
-    <t>sontruong@gmail.com</t>
   </si>
   <si>
     <t>30/07/1993</t>
@@ -884,789 +749,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4">
+        <v>34036</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4">
-        <v>34036</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" s="4">
+        <v>30235</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4">
+        <v>34884</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4">
-        <v>30235</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="J7" s="4">
+        <v>32117</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4">
-        <v>34884</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J8" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="J10" s="4">
+        <v>35551</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4">
-        <v>32117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J11" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="J13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="J14" s="4">
+        <v>35104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="J15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4">
-        <v>35551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="J16" s="4">
+        <v>33088</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="J18" s="4">
+        <v>34649</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="J19" s="4">
+        <v>31779</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="J20" s="4">
+        <v>36316</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="J21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="J22" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="4">
-        <v>35104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="J23" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="J24" s="4">
+        <v>30198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J25" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4">
-        <v>33088</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="J26" s="4">
+        <v>32606</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="J27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="J28" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="4">
-        <v>34649</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="J29" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+      <c r="J30" s="4">
+        <v>32421</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="4">
-        <v>31779</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="J31" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="4">
-        <v>36316</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="J32" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="J33" s="4">
+        <v>31475</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
         <v>80</v>
       </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="J34" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="K34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="J35" s="4">
+        <v>29557</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="J36" s="4">
+        <v>34584</v>
+      </c>
+      <c r="K36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="J37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
         <v>86</v>
       </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="J38" s="4">
+        <v>35979</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
+      <c r="J39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="4">
-        <v>30198</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="J40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
         <v>91</v>
       </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="J41" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="4">
-        <v>32606</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="J42" s="4">
+        <v>32913</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+      <c r="J43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
         <v>96</v>
       </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="J44" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="J45" s="4">
+        <v>30444</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="J46" s="4">
+        <v>35349</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+      <c r="J47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="4">
-        <v>32916</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="4">
-        <v>32421</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="4">
-        <v>31475</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="4">
-        <v>29557</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="4">
-        <v>34584</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="4">
-        <v>35979</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="4">
-        <v>32913</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="4">
-        <v>30444</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="4">
-        <v>35349</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="K48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1680,17 +1429,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1712,13 +1461,13 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -1732,57 +1481,57 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>C:\Users\Admin\Desktop\HCVIP - 3\ChromeProfile\ChromeProfile\ChromeProfile - 1</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>0dalfatraktor8971@web.de</t>
+  </si>
+  <si>
+    <t>Login Thành Công</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +780,9 @@
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
       <c r="F1" t="s">
         <v>106</v>
       </c>
@@ -1421,6 +1427,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
   <si>
     <t>C:\Users\Admin\Desktop\HCVIP - 3\ChromeProfile\ChromeProfile\ChromeProfile - 1</t>
   </si>
@@ -755,13 +755,14 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="24.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
@@ -818,6 +819,9 @@
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>107</v>
